--- a/supplemental_data/data_sources_standardized.xlsx
+++ b/supplemental_data/data_sources_standardized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02A1FC-C835-F94E-893D-1504FAF8A3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B73E1-9814-6E4C-9A89-590F04E628E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26060" windowHeight="11880" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="26060" windowHeight="11880" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="398">
   <si>
     <t>title</t>
   </si>
@@ -255,9 +255,6 @@
     <t>De Choudhury, Gamon, Counts, Horvitz</t>
   </si>
   <si>
-    <t>depression_(476)</t>
-  </si>
-  <si>
     <t>https://www.aaai.org/ocs/index.php/ICWSM/ICWSM13/paper/viewFile/6124/6351</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>survey_(personality)</t>
   </si>
   <si>
-    <t>depression_(28.4k)</t>
-  </si>
-  <si>
     <t>no_longer_exists</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>survey_(clinical), interview</t>
   </si>
   <si>
-    <t>combined (&gt;1000k)</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6442737/</t>
   </si>
   <si>
@@ -1222,6 +1213,18 @@
   </si>
   <si>
     <t>depression (53), control (101)</t>
+  </si>
+  <si>
+    <t>combined (1000k)</t>
+  </si>
+  <si>
+    <t>depression (476)</t>
+  </si>
+  <si>
+    <t>depression (28.4k)</t>
+  </si>
+  <si>
+    <t>combined (253)</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F7582B-A8CE-1545-B88D-1FB6E3E8BB38}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="G57" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1812,8 +1815,8 @@
       <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1">
-        <v>253</v>
+      <c r="K5" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
@@ -2021,7 +2024,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>41</v>
@@ -2033,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2041,10 +2044,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="1">
         <v>2014</v>
@@ -2056,19 +2059,19 @@
         <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>23</v>
@@ -2077,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2085,10 +2088,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <v>2015</v>
@@ -2106,19 +2109,19 @@
         <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N12" s="1">
         <v>11</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2126,10 +2129,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1">
         <v>2016</v>
@@ -2147,7 +2150,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>41</v>
@@ -2162,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2170,10 +2173,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1">
         <v>2014</v>
@@ -2182,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -2191,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>41</v>
@@ -2206,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2214,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1">
         <v>2015</v>
@@ -2235,10 +2238,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>41</v>
@@ -2253,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2261,10 +2264,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>2016</v>
@@ -2273,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>54</v>
@@ -2282,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>41</v>
@@ -2297,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2305,10 +2308,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1">
         <v>2017</v>
@@ -2341,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="170" x14ac:dyDescent="0.2">
@@ -2349,10 +2352,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2">
         <v>2016</v>
@@ -2361,19 +2364,19 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>23</v>
@@ -2382,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -2390,10 +2393,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1">
         <v>2016</v>
@@ -2402,22 +2405,22 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>23</v>
@@ -2426,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2434,10 +2437,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1">
         <v>2017</v>
@@ -2446,25 +2449,25 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>23</v>
@@ -2473,7 +2476,7 @@
         <v>19</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -2481,31 +2484,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1">
         <v>2016</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>41</v>
@@ -2517,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2525,10 +2528,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="1">
         <v>2015</v>
@@ -2537,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>54</v>
@@ -2549,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>41</v>
@@ -2564,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2572,10 +2575,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="1">
         <v>2013</v>
@@ -2593,19 +2596,19 @@
         <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N23" s="1">
         <v>22</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2613,10 +2616,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" s="1">
         <v>2018</v>
@@ -2628,19 +2631,19 @@
         <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>23</v>
@@ -2649,7 +2652,7 @@
         <v>23</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2657,10 +2660,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1">
         <v>2017</v>
@@ -2669,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
@@ -2678,10 +2681,10 @@
         <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>41</v>
@@ -2693,10 +2696,10 @@
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2704,10 +2707,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1">
         <v>2018</v>
@@ -2716,22 +2719,22 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>23</v>
@@ -2740,7 +2743,7 @@
         <v>25</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2748,28 +2751,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="1">
         <v>2015</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>41</v>
@@ -2784,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2792,10 +2795,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1">
         <v>2017</v>
@@ -2828,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -2836,37 +2839,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1">
         <v>2018</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>23</v>
@@ -2875,7 +2878,7 @@
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2883,28 +2886,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" s="1">
         <v>2019</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>41</v>
@@ -2919,7 +2922,7 @@
         <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2927,16 +2930,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1">
         <v>2014</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>53</v>
@@ -2948,7 +2951,7 @@
         <v>21</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
@@ -2957,7 +2960,7 @@
         <v>30</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2965,28 +2968,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1">
         <v>2016</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>41</v>
@@ -3001,7 +3004,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3009,19 +3012,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D33" s="1">
         <v>2018</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>54</v>
@@ -3030,19 +3033,19 @@
         <v>55</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N33" s="1">
         <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3050,19 +3053,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D34" s="1">
         <v>2019</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>48</v>
@@ -3071,7 +3074,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>41</v>
@@ -3083,7 +3086,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="372" x14ac:dyDescent="0.2">
@@ -3091,10 +3094,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D35" s="1">
         <v>2018</v>
@@ -3103,16 +3106,16 @@
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>41</v>
@@ -3127,7 +3130,7 @@
         <v>34</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3135,37 +3138,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="1">
         <v>2018</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>23</v>
@@ -3174,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3182,10 +3185,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D37" s="1">
         <v>2017</v>
@@ -3203,7 +3206,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>41</v>
@@ -3218,7 +3221,7 @@
         <v>36</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3226,10 +3229,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D38" s="1">
         <v>2017</v>
@@ -3238,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>54</v>
@@ -3259,7 +3262,7 @@
         <v>37</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3267,10 +3270,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D39" s="1">
         <v>2019</v>
@@ -3279,7 +3282,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>54</v>
@@ -3288,10 +3291,10 @@
         <v>21</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>41</v>
@@ -3306,7 +3309,7 @@
         <v>38</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="170" x14ac:dyDescent="0.2">
@@ -3314,10 +3317,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D40" s="1">
         <v>2016</v>
@@ -3329,19 +3332,19 @@
         <v>53</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>23</v>
@@ -3350,7 +3353,7 @@
         <v>39</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3358,28 +3361,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="1">
         <v>2019</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>41</v>
@@ -3394,7 +3397,7 @@
         <v>40</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3402,10 +3405,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D42" s="1">
         <v>2015</v>
@@ -3414,22 +3417,22 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>23</v>
@@ -3438,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -3446,10 +3449,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D43" s="1">
         <v>2018</v>
@@ -3458,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
@@ -3467,7 +3470,7 @@
         <v>21</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>41</v>
@@ -3482,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3490,10 +3493,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D44" s="1">
         <v>2018</v>
@@ -3502,16 +3505,16 @@
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>41</v>
@@ -3526,7 +3529,7 @@
         <v>43</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3534,10 +3537,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D45" s="1">
         <v>2015</v>
@@ -3549,19 +3552,19 @@
         <v>53</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>23</v>
@@ -3570,7 +3573,7 @@
         <v>44</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3578,28 +3581,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D46" s="1">
         <v>2019</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>23</v>
@@ -3608,7 +3611,7 @@
         <v>45</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3616,37 +3619,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D47" s="1">
         <v>2015</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>23</v>
@@ -3655,7 +3658,7 @@
         <v>46</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3663,19 +3666,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D48" s="1">
         <v>2014</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>48</v>
@@ -3684,19 +3687,19 @@
         <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N48" s="1">
         <v>47</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3704,19 +3707,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D49" s="1">
         <v>2015</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>48</v>
@@ -3725,19 +3728,19 @@
         <v>21</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N49" s="1">
         <v>48</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3745,43 +3748,43 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D50" s="1">
         <v>2014</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N50" s="1">
         <v>47</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3789,28 +3792,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D51" s="1">
         <v>2019</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>41</v>
@@ -3822,7 +3825,7 @@
         <v>50</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3830,10 +3833,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D52" s="1">
         <v>2017</v>
@@ -3842,25 +3845,25 @@
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>23</v>
@@ -3869,7 +3872,7 @@
         <v>51</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3877,10 +3880,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D53" s="1">
         <v>2019</v>
@@ -3913,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -3921,19 +3924,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D54" s="1">
         <v>2017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>54</v>
@@ -3942,7 +3945,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>41</v>
@@ -3954,7 +3957,7 @@
         <v>53</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3962,10 +3965,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D55" s="1">
         <v>2018</v>
@@ -3983,7 +3986,7 @@
         <v>21</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>41</v>
@@ -3998,7 +4001,7 @@
         <v>36</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4006,34 +4009,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D56" s="1">
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="L56" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>23</v>
@@ -4042,7 +4045,7 @@
         <v>55</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4050,10 +4053,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D57" s="1">
         <v>2019</v>
@@ -4062,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>54</v>
@@ -4074,7 +4077,7 @@
         <v>41</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>41</v>
@@ -4089,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4097,34 +4100,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D58" s="1">
         <v>2019</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>23</v>
@@ -4133,7 +4136,7 @@
         <v>57</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4141,28 +4144,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D59" s="1">
         <v>2017</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>22</v>
@@ -4171,10 +4174,10 @@
         <v>23</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4182,28 +4185,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D60" s="1">
         <v>2015</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>22</v>
@@ -4215,7 +4218,7 @@
         <v>59</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4223,10 +4226,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D61" s="1">
         <v>2019</v>
@@ -4244,7 +4247,7 @@
         <v>21</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>41</v>
@@ -4259,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4267,10 +4270,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D62" s="1">
         <v>2019</v>
@@ -4303,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4311,31 +4314,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D63" s="1">
         <v>2019</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>41</v>
@@ -4347,7 +4350,7 @@
         <v>62</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4355,10 +4358,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D64" s="1">
         <v>2019</v>
@@ -4367,22 +4370,22 @@
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>23</v>
@@ -4391,7 +4394,7 @@
         <v>63</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4399,28 +4402,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D65" s="1">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>41</v>
@@ -4432,7 +4435,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4440,40 +4443,40 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D66" s="1">
         <v>2019</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N66" s="1">
         <v>65</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4481,10 +4484,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D67" s="1">
         <v>2017</v>
@@ -4493,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>20</v>
@@ -4502,10 +4505,10 @@
         <v>55</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>41</v>
@@ -4517,7 +4520,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4525,10 +4528,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D68" s="1">
         <v>2013</v>
@@ -4537,25 +4540,25 @@
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>23</v>
@@ -4564,7 +4567,7 @@
         <v>67</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4572,10 +4575,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D69" s="1">
         <v>2018</v>
@@ -4587,13 +4590,13 @@
         <v>53</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>41</v>
@@ -4605,10 +4608,10 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4616,31 +4619,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D70" s="1">
         <v>2018</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>41</v>
@@ -4652,7 +4655,7 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4660,10 +4663,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D71" s="1">
         <v>2018</v>
@@ -4672,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>20</v>
@@ -4687,7 +4690,7 @@
         <v>70</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -4695,10 +4698,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D72" s="1">
         <v>2017</v>
@@ -4710,13 +4713,13 @@
         <v>53</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>23</v>
@@ -4725,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/supplemental_data/data_sources_standardized.xlsx
+++ b/supplemental_data/data_sources_standardized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B73E1-9814-6E4C-9A89-590F04E628E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE857EEA-E3A5-914B-8EFB-28FEE7E5FD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="26060" windowHeight="11880" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26060" windowHeight="11880" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,9 +1137,6 @@
     <t>https://www.aclweb.org/anthology/D19-6213/</t>
   </si>
   <si>
-    <t>death_row_last_statements, tumblr, the_kernel</t>
-  </si>
-  <si>
     <t>suicide_(ideation), imminent_death, depression, loneliness</t>
   </si>
   <si>
@@ -1225,6 +1222,9 @@
   </si>
   <si>
     <t>combined (253)</t>
+  </si>
+  <si>
+    <t>death_row_last_statements, tumblr, experience_project</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F7582B-A8CE-1545-B88D-1FB6E3E8BB38}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G57" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1816,7 +1816,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
@@ -2024,7 +2024,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>41</v>
@@ -2065,7 +2065,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>41</v>
@@ -3162,7 +3162,7 @@
         <v>172</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>41</v>
@@ -4411,10 +4411,10 @@
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>343</v>
@@ -4423,7 +4423,7 @@
         <v>55</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>41</v>
@@ -4435,7 +4435,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4464,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>41</v>
@@ -4476,7 +4476,7 @@
         <v>65</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4505,10 +4505,10 @@
         <v>55</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>41</v>
@@ -4520,7 +4520,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4543,16 +4543,16 @@
         <v>136</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>41</v>
@@ -4567,7 +4567,7 @@
         <v>67</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4590,13 +4590,13 @@
         <v>53</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>41</v>
@@ -4608,10 +4608,10 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4628,22 +4628,22 @@
         <v>2018</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>365</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>41</v>
@@ -4655,7 +4655,7 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4690,7 +4690,7 @@
         <v>70</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -4713,13 +4713,13 @@
         <v>53</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>23</v>
@@ -4728,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/supplemental_data/data_sources_standardized.xlsx
+++ b/supplemental_data/data_sources_standardized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE857EEA-E3A5-914B-8EFB-28FEE7E5FD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E982EA6B-B4BF-1349-B358-AC86E3C4D000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26060" windowHeight="11880" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="397">
   <si>
     <t>title</t>
   </si>
@@ -792,9 +792,6 @@
     <t>Mowery, Bryan, Conway</t>
   </si>
   <si>
-    <t>regular_expressions, manual_annotation</t>
-  </si>
-  <si>
     <t>depression (129)</t>
   </si>
   <si>
@@ -894,9 +891,6 @@
     <t>https://www.aclweb.org/anthology/W19-1915/</t>
   </si>
   <si>
-    <t>The Language of Social Support in Social edia and its Effect on Suicidal Ideation Risk</t>
-  </si>
-  <si>
     <t>De Choudury, Kiciman</t>
   </si>
   <si>
@@ -1225,6 +1219,9 @@
   </si>
   <si>
     <t>death_row_last_statements, tumblr, experience_project</t>
+  </si>
+  <si>
+    <t>The Language of Social Support in Social Media and its Effect on Suicidal Ideation Risk</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F7582B-A8CE-1545-B88D-1FB6E3E8BB38}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1816,7 +1813,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
@@ -2024,7 +2021,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>41</v>
@@ -2065,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>41</v>
@@ -3162,7 +3159,7 @@
         <v>172</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>41</v>
@@ -3552,13 +3549,13 @@
         <v>53</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>41</v>
@@ -3573,7 +3570,7 @@
         <v>44</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3581,28 +3578,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D46" s="1">
         <v>2019</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>23</v>
@@ -3611,7 +3608,7 @@
         <v>45</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3619,16 +3616,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D47" s="1">
         <v>2015</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>136</v>
@@ -3640,10 +3637,10 @@
         <v>21</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>41</v>
@@ -3658,7 +3655,7 @@
         <v>46</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3666,16 +3663,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D48" s="1">
         <v>2014</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>136</v>
@@ -3687,7 +3684,7 @@
         <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>41</v>
@@ -3699,7 +3696,7 @@
         <v>47</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3707,16 +3704,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D49" s="1">
         <v>2015</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>136</v>
@@ -3728,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>41</v>
@@ -3740,7 +3737,7 @@
         <v>48</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3748,16 +3745,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D50" s="1">
         <v>2014</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>136</v>
@@ -3769,10 +3766,10 @@
         <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>41</v>
@@ -3784,7 +3781,7 @@
         <v>47</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3792,28 +3789,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D51" s="1">
         <v>2019</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>41</v>
@@ -3825,7 +3822,7 @@
         <v>50</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3833,10 +3830,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D52" s="1">
         <v>2017</v>
@@ -3854,10 +3851,10 @@
         <v>21</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>41</v>
@@ -3872,7 +3869,7 @@
         <v>51</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3880,10 +3877,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D53" s="1">
         <v>2019</v>
@@ -3916,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -3924,19 +3921,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D54" s="1">
         <v>2017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>54</v>
@@ -3945,7 +3942,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>41</v>
@@ -3957,7 +3954,7 @@
         <v>53</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3965,10 +3962,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D55" s="1">
         <v>2018</v>
@@ -4001,7 +3998,7 @@
         <v>36</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4009,10 +4006,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D56" s="1">
         <v>2016</v>
@@ -4021,19 +4018,19 @@
         <v>162</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>239</v>
@@ -4045,7 +4042,7 @@
         <v>55</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4053,10 +4050,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D57" s="1">
         <v>2019</v>
@@ -4092,7 +4089,7 @@
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4100,19 +4097,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D58" s="1">
         <v>2019</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>110</v>
@@ -4121,13 +4118,13 @@
         <v>55</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>23</v>
@@ -4136,7 +4133,7 @@
         <v>57</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4144,10 +4141,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D59" s="1">
         <v>2017</v>
@@ -4156,16 +4153,16 @@
         <v>181</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>22</v>
@@ -4174,10 +4171,10 @@
         <v>23</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4185,10 +4182,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D60" s="1">
         <v>2015</v>
@@ -4197,16 +4194,16 @@
         <v>181</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>22</v>
@@ -4218,7 +4215,7 @@
         <v>59</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4226,10 +4223,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D61" s="1">
         <v>2019</v>
@@ -4262,7 +4259,7 @@
         <v>36</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4270,10 +4267,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D62" s="1">
         <v>2019</v>
@@ -4306,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4314,31 +4311,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D63" s="1">
         <v>2019</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="J63" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>41</v>
@@ -4350,7 +4347,7 @@
         <v>62</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4358,10 +4355,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D64" s="1">
         <v>2019</v>
@@ -4370,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>188</v>
@@ -4379,7 +4376,7 @@
         <v>55</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>41</v>
@@ -4394,7 +4391,7 @@
         <v>63</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4402,28 +4399,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D65" s="1">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>41</v>
@@ -4435,7 +4432,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4443,16 +4440,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D66" s="1">
         <v>2019</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>136</v>
@@ -4464,7 +4461,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>41</v>
@@ -4476,7 +4473,7 @@
         <v>65</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4484,10 +4481,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D67" s="1">
         <v>2017</v>
@@ -4505,10 +4502,10 @@
         <v>55</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>41</v>
@@ -4520,7 +4517,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4528,10 +4525,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D68" s="1">
         <v>2013</v>
@@ -4543,16 +4540,16 @@
         <v>136</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>41</v>
@@ -4567,7 +4564,7 @@
         <v>67</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4575,10 +4572,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D69" s="1">
         <v>2018</v>
@@ -4590,13 +4587,13 @@
         <v>53</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>41</v>
@@ -4608,10 +4605,10 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4619,31 +4616,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D70" s="1">
         <v>2018</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>41</v>
@@ -4655,7 +4652,7 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4663,10 +4660,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D71" s="1">
         <v>2018</v>
@@ -4690,7 +4687,7 @@
         <v>70</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -4698,10 +4695,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D72" s="1">
         <v>2017</v>
@@ -4713,13 +4710,13 @@
         <v>53</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>23</v>
@@ -4728,7 +4725,7 @@
         <v>71</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/supplemental_data/data_sources_standardized.xlsx
+++ b/supplemental_data/data_sources_standardized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E982EA6B-B4BF-1349-B358-AC86E3C4D000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612AA277-48F6-8348-8172-CA6BFCA2DA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26060" windowHeight="11880" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30300" windowHeight="18860" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="396">
   <si>
     <t>title</t>
   </si>
@@ -234,15 +234,6 @@
     <t>depression_(low-mild) (41), depression_(high) (28)</t>
   </si>
   <si>
-    <t>post_partum_depression_(combined) (578k)</t>
-  </si>
-  <si>
-    <t>depression_(combined) (2k)</t>
-  </si>
-  <si>
-    <t>depression_(combined) (5.706k)</t>
-  </si>
-  <si>
     <t>not_available_for_distribution</t>
   </si>
   <si>
@@ -399,15 +390,9 @@
     <t>mental_health_(combined) (440), control (440)</t>
   </si>
   <si>
-    <t>mental_health_combined (21.734k), control (21.734k)</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5565736/</t>
   </si>
   <si>
-    <t>mental_health_combined (15k), control (15k)</t>
-  </si>
-  <si>
     <t>community_participation, model_based</t>
   </si>
   <si>
@@ -444,9 +429,6 @@
     <t>suicide_(ideation)</t>
   </si>
   <si>
-    <t>suicide_(ideation) (280), suicide_(possible_ideation) (1120), control (600)</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2214782915000160</t>
   </si>
   <si>
@@ -894,12 +876,6 @@
     <t>De Choudury, Kiciman</t>
   </si>
   <si>
-    <t>suicide_(ideation) (62k), mental_health_(general) (41k)</t>
-  </si>
-  <si>
-    <t>suicide_(ideation) (32k), mental_health_(general) (21.3k)</t>
-  </si>
-  <si>
     <t>https://www.microsoft.com/en-us/research/publication/language-social-support-social-media-effect-suicidal-ideation-risk/</t>
   </si>
   <si>
@@ -1222,6 +1198,27 @@
   </si>
   <si>
     <t>The Language of Social Support in Social Media and its Effect on Suicidal Ideation Risk</t>
+  </si>
+  <si>
+    <t>mental_health_(combined) (15k), control (15k)</t>
+  </si>
+  <si>
+    <t>mental_health_(combined) (21.734k), control (21.734k)</t>
+  </si>
+  <si>
+    <t>suicide_(ideation) (62k), mental_health_(combined) (41k)</t>
+  </si>
+  <si>
+    <t>suicide_(ideation) (32k), mental_health_(combined) (21.3k)</t>
+  </si>
+  <si>
+    <t>combined (578k)</t>
+  </si>
+  <si>
+    <t>combined (5.706k)</t>
+  </si>
+  <si>
+    <t>suicide_(ideation) (1400), control (600)</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F7582B-A8CE-1545-B88D-1FB6E3E8BB38}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1810,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
@@ -1854,7 +1851,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>41</v>
@@ -1895,7 +1892,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>41</v>
@@ -1977,13 +1974,13 @@
         <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>394</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>23</v>
@@ -1992,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2000,10 +1997,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>2013</v>
@@ -2021,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>41</v>
@@ -2033,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2041,10 +2038,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1">
         <v>2014</v>
@@ -2056,19 +2053,19 @@
         <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>23</v>
@@ -2077,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2085,10 +2082,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1">
         <v>2015</v>
@@ -2106,19 +2103,19 @@
         <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1">
         <v>11</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2126,10 +2123,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1">
         <v>2016</v>
@@ -2147,13 +2144,13 @@
         <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>23</v>
@@ -2162,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2170,10 +2167,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1">
         <v>2014</v>
@@ -2182,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -2191,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>41</v>
@@ -2206,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2214,10 +2211,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1">
         <v>2015</v>
@@ -2235,10 +2232,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>41</v>
@@ -2253,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2261,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1">
         <v>2016</v>
@@ -2273,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>54</v>
@@ -2282,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>41</v>
@@ -2297,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2305,10 +2302,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1">
         <v>2017</v>
@@ -2341,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="170" x14ac:dyDescent="0.2">
@@ -2349,10 +2346,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2">
         <v>2016</v>
@@ -2361,10 +2358,10 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
@@ -2373,7 +2370,7 @@
         <v>41</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>23</v>
@@ -2382,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -2390,10 +2387,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D19" s="1">
         <v>2016</v>
@@ -2402,22 +2399,22 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>23</v>
@@ -2426,7 +2423,7 @@
         <v>18</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2434,10 +2431,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1">
         <v>2017</v>
@@ -2446,25 +2443,25 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>124</v>
+        <v>389</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>390</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>23</v>
@@ -2473,7 +2470,7 @@
         <v>19</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -2481,31 +2478,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1">
         <v>2016</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>41</v>
@@ -2517,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2525,10 +2522,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1">
         <v>2015</v>
@@ -2537,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>54</v>
@@ -2549,13 +2546,13 @@
         <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>23</v>
@@ -2564,7 +2561,7 @@
         <v>21</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2572,10 +2569,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1">
         <v>2013</v>
@@ -2593,19 +2590,19 @@
         <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N23" s="1">
         <v>22</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2613,10 +2610,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1">
         <v>2018</v>
@@ -2628,19 +2625,19 @@
         <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>23</v>
@@ -2649,7 +2646,7 @@
         <v>23</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2657,10 +2654,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1">
         <v>2017</v>
@@ -2669,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
@@ -2678,10 +2675,10 @@
         <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>41</v>
@@ -2693,10 +2690,10 @@
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2704,10 +2701,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1">
         <v>2018</v>
@@ -2716,22 +2713,22 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>23</v>
@@ -2740,7 +2737,7 @@
         <v>25</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2748,34 +2745,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1">
         <v>2015</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="K27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>23</v>
@@ -2784,7 +2781,7 @@
         <v>26</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2792,10 +2789,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D28" s="1">
         <v>2017</v>
@@ -2828,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -2836,37 +2833,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1">
         <v>2018</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>23</v>
@@ -2875,7 +2872,7 @@
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2883,34 +2880,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1">
         <v>2019</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="K30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>23</v>
@@ -2919,7 +2916,7 @@
         <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2927,16 +2924,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D31" s="1">
         <v>2014</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>53</v>
@@ -2948,7 +2945,7 @@
         <v>21</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
@@ -2957,7 +2954,7 @@
         <v>30</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2965,28 +2962,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D32" s="1">
         <v>2016</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>41</v>
@@ -3001,7 +2998,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3009,19 +3006,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D33" s="1">
         <v>2018</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>54</v>
@@ -3030,19 +3027,19 @@
         <v>55</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N33" s="1">
         <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3050,19 +3047,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1">
         <v>2019</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>48</v>
@@ -3071,7 +3068,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>41</v>
@@ -3083,7 +3080,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="372" x14ac:dyDescent="0.2">
@@ -3091,10 +3088,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D35" s="1">
         <v>2018</v>
@@ -3103,16 +3100,16 @@
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>41</v>
@@ -3127,7 +3124,7 @@
         <v>34</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3135,37 +3132,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D36" s="1">
         <v>2018</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>23</v>
@@ -3174,7 +3171,7 @@
         <v>28</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3182,10 +3179,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D37" s="1">
         <v>2017</v>
@@ -3203,7 +3200,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>41</v>
@@ -3218,7 +3215,7 @@
         <v>36</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3226,10 +3223,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D38" s="1">
         <v>2017</v>
@@ -3238,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>54</v>
@@ -3259,7 +3256,7 @@
         <v>37</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3267,10 +3264,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D39" s="1">
         <v>2019</v>
@@ -3279,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>54</v>
@@ -3288,10 +3285,10 @@
         <v>21</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>41</v>
@@ -3306,7 +3303,7 @@
         <v>38</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="170" x14ac:dyDescent="0.2">
@@ -3314,10 +3311,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D40" s="1">
         <v>2016</v>
@@ -3329,19 +3326,19 @@
         <v>53</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>23</v>
@@ -3350,7 +3347,7 @@
         <v>39</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3358,34 +3355,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1">
         <v>2019</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>23</v>
@@ -3394,7 +3391,7 @@
         <v>40</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3402,10 +3399,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D42" s="1">
         <v>2015</v>
@@ -3414,22 +3411,22 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>23</v>
@@ -3438,7 +3435,7 @@
         <v>41</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -3446,10 +3443,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D43" s="1">
         <v>2018</v>
@@ -3458,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
@@ -3467,7 +3464,7 @@
         <v>21</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>41</v>
@@ -3482,7 +3479,7 @@
         <v>42</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3490,10 +3487,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D44" s="1">
         <v>2018</v>
@@ -3502,16 +3499,16 @@
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>41</v>
@@ -3526,7 +3523,7 @@
         <v>43</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3534,10 +3531,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D45" s="1">
         <v>2015</v>
@@ -3555,13 +3552,13 @@
         <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>23</v>
@@ -3570,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3578,28 +3575,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D46" s="1">
         <v>2019</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>23</v>
@@ -3608,7 +3605,7 @@
         <v>45</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3616,37 +3613,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D47" s="1">
         <v>2015</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>23</v>
@@ -3655,7 +3652,7 @@
         <v>46</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3663,19 +3660,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D48" s="1">
         <v>2014</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>48</v>
@@ -3684,19 +3681,19 @@
         <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N48" s="1">
         <v>47</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3704,19 +3701,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D49" s="1">
         <v>2015</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>48</v>
@@ -3725,19 +3722,19 @@
         <v>21</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N49" s="1">
         <v>48</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3745,43 +3742,43 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D50" s="1">
         <v>2014</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N50" s="1">
         <v>47</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3789,28 +3786,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D51" s="1">
         <v>2019</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>41</v>
@@ -3822,7 +3819,7 @@
         <v>50</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3830,10 +3827,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D52" s="1">
         <v>2017</v>
@@ -3842,25 +3839,25 @@
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>23</v>
@@ -3869,7 +3866,7 @@
         <v>51</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3877,10 +3874,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D53" s="1">
         <v>2019</v>
@@ -3913,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -3921,19 +3918,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D54" s="1">
         <v>2017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>54</v>
@@ -3942,7 +3939,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>41</v>
@@ -3954,7 +3951,7 @@
         <v>53</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3962,10 +3959,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D55" s="1">
         <v>2018</v>
@@ -3983,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>41</v>
@@ -3998,7 +3995,7 @@
         <v>36</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4006,34 +4003,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D56" s="1">
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>23</v>
@@ -4042,7 +4039,7 @@
         <v>55</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4050,10 +4047,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D57" s="1">
         <v>2019</v>
@@ -4062,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>54</v>
@@ -4074,13 +4071,13 @@
         <v>41</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>23</v>
@@ -4089,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4097,34 +4094,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D58" s="1">
         <v>2019</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>23</v>
@@ -4133,7 +4130,7 @@
         <v>57</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4141,28 +4138,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D59" s="1">
         <v>2017</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>22</v>
@@ -4171,10 +4168,10 @@
         <v>23</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4182,28 +4179,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D60" s="1">
         <v>2015</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>22</v>
@@ -4215,7 +4212,7 @@
         <v>59</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4223,10 +4220,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D61" s="1">
         <v>2019</v>
@@ -4244,7 +4241,7 @@
         <v>21</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>41</v>
@@ -4259,7 +4256,7 @@
         <v>36</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4267,10 +4264,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D62" s="1">
         <v>2019</v>
@@ -4303,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4311,31 +4308,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D63" s="1">
         <v>2019</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>41</v>
@@ -4347,7 +4344,7 @@
         <v>62</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4355,10 +4352,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D64" s="1">
         <v>2019</v>
@@ -4367,22 +4364,22 @@
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>23</v>
@@ -4391,7 +4388,7 @@
         <v>63</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4399,28 +4396,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D65" s="1">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>41</v>
@@ -4432,7 +4429,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4440,40 +4437,40 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D66" s="1">
         <v>2019</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N66" s="1">
         <v>65</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4481,10 +4478,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D67" s="1">
         <v>2017</v>
@@ -4493,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>20</v>
@@ -4502,10 +4499,10 @@
         <v>55</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>41</v>
@@ -4517,7 +4514,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4525,10 +4522,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D68" s="1">
         <v>2013</v>
@@ -4537,25 +4534,25 @@
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>23</v>
@@ -4564,7 +4561,7 @@
         <v>67</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4572,10 +4569,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D69" s="1">
         <v>2018</v>
@@ -4587,13 +4584,13 @@
         <v>53</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>41</v>
@@ -4605,10 +4602,10 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4616,31 +4613,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D70" s="1">
         <v>2018</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>41</v>
@@ -4652,7 +4649,7 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4660,10 +4657,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D71" s="1">
         <v>2018</v>
@@ -4672,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>20</v>
@@ -4687,7 +4684,7 @@
         <v>70</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -4695,10 +4692,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D72" s="1">
         <v>2017</v>
@@ -4710,13 +4707,13 @@
         <v>53</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>23</v>
@@ -4725,7 +4722,7 @@
         <v>71</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/supplemental_data/data_sources_standardized.xlsx
+++ b/supplemental_data/data_sources_standardized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612AA277-48F6-8348-8172-CA6BFCA2DA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C65F2-6E64-0443-A4AC-46971B5F2C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30300" windowHeight="18860" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{A1A2B0B9-EC2A-0C4B-9F85-EE07A9280363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -783,9 +783,6 @@
     <t>https://www.aclweb.org/anthology/W19-1918/</t>
   </si>
   <si>
-    <t>Automatically Generating Pschiatric Case Note From Digital Transcripts of Doctor-Patient Conversations</t>
-  </si>
-  <si>
     <t>Kazi, Kahanda</t>
   </si>
   <si>
@@ -1219,6 +1216,9 @@
   </si>
   <si>
     <t>suicide_(ideation) (1400), control (600)</t>
+  </si>
+  <si>
+    <t>Automatically Generating Psychiatric Case Note From Digital Transcripts of Doctor-Patient Conversations</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F7582B-A8CE-1545-B88D-1FB6E3E8BB38}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,7 +1810,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
@@ -1851,7 +1851,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>41</v>
@@ -1974,7 +1974,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>41</v>
@@ -2018,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>41</v>
@@ -2059,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>41</v>
@@ -2452,10 +2452,10 @@
         <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>41</v>
@@ -2546,7 +2546,7 @@
         <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>41</v>
@@ -3156,7 +3156,7 @@
         <v>166</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>41</v>
@@ -3575,28 +3575,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D46" s="1">
         <v>2019</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>182</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>23</v>
@@ -3613,16 +3613,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D47" s="1">
         <v>2015</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>131</v>
@@ -3634,10 +3634,10 @@
         <v>21</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>41</v>
@@ -3652,7 +3652,7 @@
         <v>46</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3660,16 +3660,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D48" s="1">
         <v>2014</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>131</v>
@@ -3681,7 +3681,7 @@
         <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>41</v>
@@ -3693,7 +3693,7 @@
         <v>47</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3701,16 +3701,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D49" s="1">
         <v>2015</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>131</v>
@@ -3722,7 +3722,7 @@
         <v>21</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>48</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3742,16 +3742,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D50" s="1">
         <v>2014</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>131</v>
@@ -3763,10 +3763,10 @@
         <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>41</v>
@@ -3778,7 +3778,7 @@
         <v>47</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3786,28 +3786,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D51" s="1">
         <v>2019</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>182</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>41</v>
@@ -3819,7 +3819,7 @@
         <v>50</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3827,10 +3827,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="1">
         <v>2017</v>
@@ -3848,10 +3848,10 @@
         <v>21</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>41</v>
@@ -3866,7 +3866,7 @@
         <v>51</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3874,10 +3874,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D53" s="1">
         <v>2019</v>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -3918,19 +3918,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D54" s="1">
         <v>2017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>54</v>
@@ -3939,7 +3939,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>41</v>
@@ -3951,7 +3951,7 @@
         <v>53</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -3959,10 +3959,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D55" s="1">
         <v>2018</v>
@@ -3995,7 +3995,7 @@
         <v>36</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4003,10 +4003,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D56" s="1">
         <v>2016</v>
@@ -4015,19 +4015,19 @@
         <v>156</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>233</v>
@@ -4039,7 +4039,7 @@
         <v>55</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4047,10 +4047,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D57" s="1">
         <v>2019</v>
@@ -4071,7 +4071,7 @@
         <v>41</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>41</v>
@@ -4086,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4094,19 +4094,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D58" s="1">
         <v>2019</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>107</v>
@@ -4115,13 +4115,13 @@
         <v>55</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>23</v>
@@ -4130,7 +4130,7 @@
         <v>57</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4138,10 +4138,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D59" s="1">
         <v>2017</v>
@@ -4150,16 +4150,16 @@
         <v>175</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>22</v>
@@ -4168,10 +4168,10 @@
         <v>23</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4179,10 +4179,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="D60" s="1">
         <v>2015</v>
@@ -4191,16 +4191,16 @@
         <v>175</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>22</v>
@@ -4212,7 +4212,7 @@
         <v>59</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4220,10 +4220,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D61" s="1">
         <v>2019</v>
@@ -4256,7 +4256,7 @@
         <v>36</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4264,10 +4264,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D62" s="1">
         <v>2019</v>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4308,31 +4308,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D63" s="1">
         <v>2019</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>41</v>
@@ -4344,7 +4344,7 @@
         <v>62</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4352,10 +4352,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D64" s="1">
         <v>2019</v>
@@ -4364,7 +4364,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>182</v>
@@ -4373,7 +4373,7 @@
         <v>55</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>41</v>
@@ -4388,7 +4388,7 @@
         <v>63</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4396,28 +4396,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D65" s="1">
         <v>2019</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>41</v>
@@ -4429,7 +4429,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4437,16 +4437,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D66" s="1">
         <v>2019</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>131</v>
@@ -4458,7 +4458,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>41</v>
@@ -4470,7 +4470,7 @@
         <v>65</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4478,10 +4478,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D67" s="1">
         <v>2017</v>
@@ -4499,10 +4499,10 @@
         <v>55</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>41</v>
@@ -4514,7 +4514,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4522,10 +4522,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D68" s="1">
         <v>2013</v>
@@ -4537,16 +4537,16 @@
         <v>131</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>41</v>
@@ -4561,7 +4561,7 @@
         <v>67</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -4569,10 +4569,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D69" s="1">
         <v>2018</v>
@@ -4584,13 +4584,13 @@
         <v>53</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>41</v>
@@ -4602,10 +4602,10 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -4613,31 +4613,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D70" s="1">
         <v>2018</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>41</v>
@@ -4649,7 +4649,7 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -4657,10 +4657,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D71" s="1">
         <v>2018</v>
@@ -4684,7 +4684,7 @@
         <v>70</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -4692,10 +4692,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D72" s="1">
         <v>2017</v>
@@ -4707,13 +4707,13 @@
         <v>53</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>23</v>
@@ -4722,7 +4722,7 @@
         <v>71</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/supplemental_data/data_sources_standardized.xlsx
+++ b/supplemental_data/data_sources_standardized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6153C0B-DA24-D240-8566-24B0CD8CEDA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E245ECFC-0B12-3E43-B20C-AB12B45CDA9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29800" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,12 +133,6 @@
     <t>adhd, anxiety, bipolar_disorder, depression, eating, ocd, ptsd, schizophrenia, seasonal_affective_disorder</t>
   </si>
   <si>
-    <t>adhd (102), anxiety (216), bipolar_disorder (188), depression (393), eating (238), ocd (100), ptsd (403), schizophrenia (172), seasonal_affective_disorder (100)</t>
-  </si>
-  <si>
-    <t>adhd (384k), anxiety (1591k), bipolar_disorder (730k), depression (546k), eating (724k), ocd (314k), ptsd (1251k), schizophrenia (493k), seasonal_affective_disorder (340k)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -1558,9 +1552,6 @@
     <t>stress (11074), control (12230)</t>
   </si>
   <si>
-    <t>stress (2300k), control (2600k)</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -2576,6 +2567,15 @@
   </si>
   <si>
     <t>https://tec.citius.usc.es/ir/pdf/eRisk2018LNCS.pdf</t>
+  </si>
+  <si>
+    <t>stress (230k), control (260k)</t>
+  </si>
+  <si>
+    <t>adhd (102), anxiety (216), bipolar_disorder (188), borderline_personality (101), depression (393), eating (238), ocd (100), ptsd (403), schizophrenia (172), seasonal_affective_disorder (100)</t>
+  </si>
+  <si>
+    <t>adhd (384k), anxiety (1591k), bipolar_disorder (730k), borderline_personality (321k), depression (546k), eating (724k), ocd (314k), ptsd (1251k), schizophrenia (493k), seasonal_affective_disorder (340k)</t>
   </si>
 </sst>
 </file>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3113,10 +3113,10 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>850</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>851</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -3128,10 +3128,10 @@
         <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3139,16 +3139,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -3160,19 +3160,19 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3180,43 +3180,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>2014</v>
       </c>
       <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3224,10 +3224,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>2017</v>
@@ -3236,28 +3236,28 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3265,37 +3265,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
         <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3303,10 +3303,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -3315,34 +3315,34 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
         <v>75</v>
       </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3350,10 +3350,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>2013</v>
@@ -3362,28 +3362,28 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
         <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3391,43 +3391,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>88</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>2015</v>
@@ -3447,28 +3447,28 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
       <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" t="s">
         <v>93</v>
       </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>94</v>
-      </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3476,10 +3476,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>2016</v>
@@ -3491,28 +3491,28 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
         <v>99</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3520,10 +3520,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -3532,7 +3532,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -3541,7 +3541,7 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
         <v>22</v>
@@ -3553,10 +3553,10 @@
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3564,10 +3564,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>2015</v>
@@ -3585,10 +3585,10 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -3603,7 +3603,7 @@
         <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3611,10 +3611,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>2016</v>
@@ -3623,16 +3623,16 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
@@ -3644,10 +3644,10 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -3655,10 +3655,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>2017</v>
@@ -3691,7 +3691,7 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -3699,43 +3699,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
         <v>125</v>
       </c>
-      <c r="G18" t="s">
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
         <v>126</v>
       </c>
-      <c r="H18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
         <v>127</v>
       </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>128</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" t="s">
-        <v>129</v>
-      </c>
-      <c r="O18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -3743,43 +3743,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
       <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O19" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -3787,46 +3787,46 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
         <v>140</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>141</v>
       </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
         <v>142</v>
       </c>
-      <c r="J20" t="s">
+      <c r="O20" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" t="s">
-        <v>144</v>
-      </c>
-      <c r="O20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -3834,43 +3834,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
         <v>148</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" t="s">
-        <v>150</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
       </c>
       <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
         <v>151</v>
       </c>
-      <c r="J21" t="s">
+      <c r="O21" t="s">
         <v>152</v>
-      </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" t="s">
-        <v>153</v>
-      </c>
-      <c r="O21" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -3878,10 +3878,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D22">
         <v>2015</v>
@@ -3890,34 +3890,34 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
         <v>157</v>
       </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="O22" t="s">
         <v>158</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -3925,40 +3925,40 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23">
         <v>2013</v>
       </c>
       <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" t="s">
         <v>163</v>
       </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>164</v>
-      </c>
-      <c r="N23" t="s">
-        <v>165</v>
-      </c>
-      <c r="O23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -3966,43 +3966,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24">
         <v>2018</v>
       </c>
       <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
         <v>124</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>126</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
       </c>
       <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
         <v>169</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" t="s">
-        <v>170</v>
-      </c>
-      <c r="O24" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -4010,10 +4010,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D25">
         <v>2017</v>
@@ -4022,7 +4022,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
@@ -4031,10 +4031,10 @@
         <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
@@ -4046,10 +4046,10 @@
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -4057,43 +4057,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26">
         <v>2018</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O26" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -4101,43 +4101,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
       </c>
       <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" t="s">
-        <v>189</v>
-      </c>
-      <c r="O27" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -4145,10 +4145,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D28">
         <v>2017</v>
@@ -4181,7 +4181,7 @@
         <v>25</v>
       </c>
       <c r="O28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -4189,46 +4189,46 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29">
         <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
         <v>196</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>197</v>
       </c>
-      <c r="H29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
         <v>198</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
         <v>199</v>
       </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="O29" t="s">
         <v>200</v>
-      </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" t="s">
-        <v>201</v>
-      </c>
-      <c r="O29" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -4236,43 +4236,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30">
         <v>2019</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M30" t="s">
         <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -4280,28 +4280,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>2016</v>
       </c>
       <c r="E31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
         <v>208</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
         <v>209</v>
-      </c>
-      <c r="G31" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" t="s">
-        <v>211</v>
       </c>
       <c r="K31" t="s">
         <v>22</v>
@@ -4313,10 +4313,10 @@
         <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -4324,40 +4324,40 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D32">
         <v>2018</v>
       </c>
       <c r="E32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
         <v>216</v>
       </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="N32" t="s">
         <v>217</v>
       </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>218</v>
-      </c>
-      <c r="N32" t="s">
-        <v>219</v>
-      </c>
-      <c r="O32" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -4365,40 +4365,40 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D33">
         <v>2019</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
       </c>
       <c r="I33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
         <v>225</v>
-      </c>
-      <c r="K33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" t="s">
-        <v>226</v>
-      </c>
-      <c r="O33" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -4406,28 +4406,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D34">
         <v>2018</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -4439,10 +4439,10 @@
         <v>24</v>
       </c>
       <c r="N34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -4450,46 +4450,46 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D35">
         <v>2018</v>
       </c>
       <c r="E35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" t="s">
         <v>235</v>
       </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" t="s">
         <v>236</v>
-      </c>
-      <c r="H35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35" t="s">
-        <v>237</v>
-      </c>
-      <c r="K35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" t="s">
-        <v>200</v>
-      </c>
-      <c r="M35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" t="s">
-        <v>201</v>
-      </c>
-      <c r="O35" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -4497,19 +4497,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D36">
         <v>2017</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
@@ -4518,7 +4518,7 @@
         <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
@@ -4530,10 +4530,10 @@
         <v>24</v>
       </c>
       <c r="N36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -4541,10 +4541,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D37">
         <v>2017</v>
@@ -4553,17 +4553,17 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
         <v>60</v>
       </c>
-      <c r="H37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" t="s">
-        <v>62</v>
-      </c>
       <c r="K37" t="s">
         <v>22</v>
       </c>
@@ -4571,10 +4571,10 @@
         <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -4582,31 +4582,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D38">
         <v>2019</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -4618,10 +4618,10 @@
         <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -4629,10 +4629,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D39">
         <v>2016</v>
@@ -4641,31 +4641,31 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="s">
         <v>59</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
+        <v>255</v>
+      </c>
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
         <v>256</v>
       </c>
-      <c r="H39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
         <v>257</v>
       </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="O39" t="s">
         <v>258</v>
-      </c>
-      <c r="M39" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" t="s">
-        <v>259</v>
-      </c>
-      <c r="O39" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -4673,43 +4673,43 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D40">
         <v>2019</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>263</v>
+      </c>
+      <c r="O40" t="s">
         <v>264</v>
-      </c>
-      <c r="K40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" t="s">
-        <v>76</v>
-      </c>
-      <c r="M40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" t="s">
-        <v>265</v>
-      </c>
-      <c r="O40" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -4717,10 +4717,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D41">
         <v>2015</v>
@@ -4729,31 +4729,31 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
         <v>269</v>
       </c>
-      <c r="G41" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
         <v>270</v>
       </c>
-      <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="O41" t="s">
         <v>271</v>
-      </c>
-      <c r="M41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s">
-        <v>272</v>
-      </c>
-      <c r="O41" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -4761,19 +4761,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D42">
         <v>2018</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -4782,7 +4782,7 @@
         <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -4794,10 +4794,10 @@
         <v>24</v>
       </c>
       <c r="N42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -4805,28 +4805,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D43">
         <v>2018</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
@@ -4838,10 +4838,10 @@
         <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -4849,10 +4849,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D44">
         <v>2015</v>
@@ -4861,31 +4861,31 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" t="s">
         <v>59</v>
       </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" t="s">
-        <v>61</v>
-      </c>
       <c r="J44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" t="s">
+        <v>256</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44" t="s">
         <v>288</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="s">
-        <v>258</v>
-      </c>
-      <c r="M44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" t="s">
-        <v>289</v>
-      </c>
-      <c r="O44" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -4893,46 +4893,46 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D45">
         <v>2015</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
       </c>
       <c r="I45" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
         <v>294</v>
       </c>
-      <c r="J45" t="s">
+      <c r="O45" t="s">
         <v>295</v>
-      </c>
-      <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
-        <v>128</v>
-      </c>
-      <c r="M45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" t="s">
-        <v>296</v>
-      </c>
-      <c r="O45" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -4940,40 +4940,40 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D46">
         <v>2014</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
       <c r="I46" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>216</v>
+      </c>
+      <c r="N46" t="s">
+        <v>300</v>
+      </c>
+      <c r="O46" t="s">
         <v>301</v>
-      </c>
-      <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" t="s">
-        <v>218</v>
-      </c>
-      <c r="N46" t="s">
-        <v>302</v>
-      </c>
-      <c r="O46" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -4981,40 +4981,40 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47">
         <v>2015</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
         <v>20</v>
       </c>
       <c r="I47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" t="s">
+        <v>216</v>
+      </c>
+      <c r="N47" t="s">
+        <v>305</v>
+      </c>
+      <c r="O47" t="s">
         <v>306</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" t="s">
-        <v>218</v>
-      </c>
-      <c r="N47" t="s">
-        <v>307</v>
-      </c>
-      <c r="O47" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -5022,43 +5022,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D48">
         <v>2014</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J48" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -5066,46 +5066,46 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D49">
         <v>2017</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="I49" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" t="s">
+        <v>314</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
         <v>315</v>
       </c>
-      <c r="J49" t="s">
+      <c r="O49" t="s">
         <v>316</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>128</v>
-      </c>
-      <c r="M49" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" t="s">
-        <v>317</v>
-      </c>
-      <c r="O49" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5113,10 +5113,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D50">
         <v>2019</v>
@@ -5149,7 +5149,7 @@
         <v>25</v>
       </c>
       <c r="O50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -5157,19 +5157,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D51">
         <v>2018</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -5178,7 +5178,7 @@
         <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -5190,10 +5190,10 @@
         <v>24</v>
       </c>
       <c r="N51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -5201,43 +5201,43 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D52">
         <v>2016</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>326</v>
+      </c>
+      <c r="H52" t="s">
         <v>327</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>328</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
         <v>329</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
+        <v>269</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
         <v>330</v>
       </c>
-      <c r="K52" t="s">
+      <c r="O52" t="s">
         <v>331</v>
-      </c>
-      <c r="L52" t="s">
-        <v>271</v>
-      </c>
-      <c r="M52" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" t="s">
-        <v>332</v>
-      </c>
-      <c r="O52" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5245,10 +5245,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D53">
         <v>2019</v>
@@ -5257,34 +5257,34 @@
         <v>17</v>
       </c>
       <c r="F53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
         <v>157</v>
       </c>
-      <c r="G53" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" t="s">
-        <v>158</v>
-      </c>
-      <c r="K53" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" t="s">
-        <v>76</v>
-      </c>
-      <c r="M53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" t="s">
-        <v>159</v>
-      </c>
       <c r="O53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5292,43 +5292,43 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D54">
         <v>2019</v>
       </c>
       <c r="E54" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" t="s">
+        <v>338</v>
+      </c>
+      <c r="G54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" t="s">
         <v>339</v>
       </c>
-      <c r="F54" t="s">
+      <c r="J54" t="s">
         <v>340</v>
       </c>
-      <c r="G54" t="s">
-        <v>126</v>
-      </c>
-      <c r="H54" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>341</v>
       </c>
-      <c r="J54" t="s">
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
         <v>342</v>
       </c>
-      <c r="K54" t="s">
+      <c r="O54" t="s">
         <v>343</v>
-      </c>
-      <c r="M54" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" t="s">
-        <v>344</v>
-      </c>
-      <c r="O54" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -5336,19 +5336,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D55">
         <v>2018</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -5357,7 +5357,7 @@
         <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K55" t="s">
         <v>22</v>
@@ -5369,10 +5369,10 @@
         <v>24</v>
       </c>
       <c r="N55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5380,10 +5380,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D56">
         <v>2019</v>
@@ -5416,7 +5416,7 @@
         <v>25</v>
       </c>
       <c r="O56" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -5424,43 +5424,43 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
+        <v>352</v>
+      </c>
+      <c r="G57" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" t="s">
+        <v>353</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>269</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
         <v>354</v>
       </c>
-      <c r="G57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" t="s">
-        <v>61</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="O57" t="s">
         <v>355</v>
-      </c>
-      <c r="K57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" t="s">
-        <v>271</v>
-      </c>
-      <c r="M57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" t="s">
-        <v>356</v>
-      </c>
-      <c r="O57" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5468,40 +5468,40 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D58">
         <v>2019</v>
       </c>
       <c r="E58" t="s">
+        <v>358</v>
+      </c>
+      <c r="F58" t="s">
+        <v>359</v>
+      </c>
+      <c r="G58" t="s">
         <v>360</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" t="s">
         <v>361</v>
       </c>
-      <c r="G58" t="s">
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
         <v>362</v>
       </c>
-      <c r="H58" t="s">
-        <v>61</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="O58" t="s">
         <v>363</v>
-      </c>
-      <c r="K58" t="s">
-        <v>22</v>
-      </c>
-      <c r="M58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" t="s">
-        <v>364</v>
-      </c>
-      <c r="O58" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5509,40 +5509,40 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D59">
         <v>2019</v>
       </c>
       <c r="E59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
       </c>
       <c r="I59" t="s">
+        <v>366</v>
+      </c>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" t="s">
+        <v>216</v>
+      </c>
+      <c r="N59" t="s">
+        <v>367</v>
+      </c>
+      <c r="O59" t="s">
         <v>368</v>
-      </c>
-      <c r="K59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M59" t="s">
-        <v>218</v>
-      </c>
-      <c r="N59" t="s">
-        <v>369</v>
-      </c>
-      <c r="O59" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5550,10 +5550,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C60" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D60">
         <v>2017</v>
@@ -5562,31 +5562,31 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I60" t="s">
+        <v>371</v>
+      </c>
+      <c r="J60" t="s">
+        <v>372</v>
+      </c>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
         <v>373</v>
       </c>
-      <c r="J60" t="s">
+      <c r="O60" t="s">
         <v>374</v>
-      </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" t="s">
-        <v>375</v>
-      </c>
-      <c r="O60" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5594,46 +5594,46 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D61">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G61" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J61" t="s">
         <v>379</v>
       </c>
-      <c r="H61" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>126</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
         <v>380</v>
       </c>
-      <c r="J61" t="s">
+      <c r="O61" t="s">
         <v>381</v>
-      </c>
-      <c r="K61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M61" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" t="s">
-        <v>382</v>
-      </c>
-      <c r="O61" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -5641,10 +5641,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D62">
         <v>2018</v>
@@ -5653,16 +5653,16 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K62" t="s">
         <v>22</v>
@@ -5674,10 +5674,10 @@
         <v>24</v>
       </c>
       <c r="N62" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5685,43 +5685,43 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D63">
         <v>2018</v>
       </c>
       <c r="E63" t="s">
+        <v>390</v>
+      </c>
+      <c r="F63" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s">
+        <v>391</v>
+      </c>
+      <c r="H63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" t="s">
         <v>392</v>
       </c>
-      <c r="F63" t="s">
-        <v>354</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>393</v>
       </c>
-      <c r="H63" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
         <v>394</v>
       </c>
-      <c r="J63" t="s">
+      <c r="O63" t="s">
         <v>395</v>
-      </c>
-      <c r="K63" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" t="s">
-        <v>396</v>
-      </c>
-      <c r="O63" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5729,10 +5729,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D64">
         <v>2018</v>
@@ -5741,22 +5741,22 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M64" t="s">
         <v>24</v>
       </c>
       <c r="N64" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -5764,10 +5764,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D65">
         <v>2017</v>
@@ -5776,25 +5776,25 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
       <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
+        <v>404</v>
+      </c>
+      <c r="O65" t="s">
         <v>405</v>
-      </c>
-      <c r="M65" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" t="s">
-        <v>406</v>
-      </c>
-      <c r="O65" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -5802,43 +5802,43 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D66">
         <v>2018</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66" t="s">
+        <v>409</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
+        <v>410</v>
+      </c>
+      <c r="O66" t="s">
         <v>411</v>
-      </c>
-      <c r="K66" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" t="s">
-        <v>76</v>
-      </c>
-      <c r="M66" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" t="s">
-        <v>412</v>
-      </c>
-      <c r="O66" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -5846,43 +5846,43 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D67">
         <v>2018</v>
       </c>
       <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>414</v>
+      </c>
+      <c r="G67" t="s">
         <v>50</v>
-      </c>
-      <c r="F67" t="s">
-        <v>416</v>
-      </c>
-      <c r="G67" t="s">
-        <v>52</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
       </c>
       <c r="I67" t="s">
+        <v>415</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>86</v>
+      </c>
+      <c r="M67" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" t="s">
+        <v>416</v>
+      </c>
+      <c r="O67" t="s">
         <v>417</v>
-      </c>
-      <c r="K67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" t="s">
-        <v>88</v>
-      </c>
-      <c r="M67" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" t="s">
-        <v>418</v>
-      </c>
-      <c r="O67" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -5890,43 +5890,43 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C68" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D68">
         <v>2017</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
       </c>
       <c r="I68" t="s">
+        <v>420</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>74</v>
+      </c>
+      <c r="M68" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" t="s">
+        <v>421</v>
+      </c>
+      <c r="O68" t="s">
         <v>422</v>
-      </c>
-      <c r="K68" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" t="s">
-        <v>76</v>
-      </c>
-      <c r="M68" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" t="s">
-        <v>423</v>
-      </c>
-      <c r="O68" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -5934,43 +5934,43 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D69">
         <v>2018</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
       </c>
       <c r="I69" t="s">
+        <v>425</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" t="s">
+        <v>426</v>
+      </c>
+      <c r="O69" t="s">
         <v>427</v>
-      </c>
-      <c r="K69" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" t="s">
-        <v>76</v>
-      </c>
-      <c r="M69" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" t="s">
-        <v>428</v>
-      </c>
-      <c r="O69" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -5978,40 +5978,40 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D70">
         <v>2017</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F70" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" t="s">
         <v>432</v>
       </c>
-      <c r="G70" t="s">
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="M70" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" t="s">
         <v>433</v>
       </c>
-      <c r="H70" t="s">
-        <v>61</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="O70" t="s">
         <v>434</v>
-      </c>
-      <c r="K70" t="s">
-        <v>22</v>
-      </c>
-      <c r="M70" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" t="s">
-        <v>435</v>
-      </c>
-      <c r="O70" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -6019,28 +6019,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C71" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D71">
         <v>2017</v>
       </c>
       <c r="E71" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" t="s">
+        <v>437</v>
+      </c>
+      <c r="G71" t="s">
         <v>208</v>
       </c>
-      <c r="F71" t="s">
-        <v>439</v>
-      </c>
-      <c r="G71" t="s">
-        <v>210</v>
-      </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J71" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
@@ -6052,10 +6052,10 @@
         <v>24</v>
       </c>
       <c r="N71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -6063,31 +6063,31 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D72">
         <v>2018</v>
       </c>
       <c r="E72" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" t="s">
+        <v>437</v>
+      </c>
+      <c r="G72" t="s">
         <v>208</v>
       </c>
-      <c r="F72" t="s">
-        <v>439</v>
-      </c>
-      <c r="G72" t="s">
-        <v>210</v>
-      </c>
       <c r="H72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
@@ -6099,10 +6099,10 @@
         <v>24</v>
       </c>
       <c r="N72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -6110,40 +6110,40 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C73" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D73">
         <v>2018</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
+        <v>445</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" t="s">
+        <v>446</v>
+      </c>
+      <c r="O73" t="s">
         <v>447</v>
-      </c>
-      <c r="K73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M73" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" t="s">
-        <v>448</v>
-      </c>
-      <c r="O73" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -6151,43 +6151,43 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C74" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D74">
         <v>2018</v>
       </c>
       <c r="E74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" t="s">
         <v>124</v>
       </c>
-      <c r="F74" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" t="s">
+        <v>450</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
         <v>126</v>
       </c>
-      <c r="H74" t="s">
-        <v>61</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="M74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" t="s">
+        <v>451</v>
+      </c>
+      <c r="O74" t="s">
         <v>452</v>
-      </c>
-      <c r="K74" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" t="s">
-        <v>128</v>
-      </c>
-      <c r="M74" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" t="s">
-        <v>453</v>
-      </c>
-      <c r="O74" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -6195,10 +6195,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D75">
         <v>2018</v>
@@ -6207,34 +6207,34 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
       </c>
       <c r="I75" t="s">
+        <v>456</v>
+      </c>
+      <c r="J75" t="s">
+        <v>457</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>126</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
         <v>458</v>
       </c>
-      <c r="J75" t="s">
+      <c r="O75" t="s">
         <v>459</v>
-      </c>
-      <c r="K75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" t="s">
-        <v>128</v>
-      </c>
-      <c r="M75" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" t="s">
-        <v>460</v>
-      </c>
-      <c r="O75" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -6242,43 +6242,43 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C76" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D76">
         <v>2017</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F76" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" t="s">
+        <v>462</v>
+      </c>
+      <c r="H76" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" t="s">
         <v>125</v>
       </c>
-      <c r="G76" t="s">
-        <v>464</v>
-      </c>
-      <c r="H76" t="s">
-        <v>61</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>126</v>
+      </c>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" t="s">
         <v>127</v>
       </c>
-      <c r="K76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" t="s">
-        <v>128</v>
-      </c>
-      <c r="M76" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" t="s">
-        <v>129</v>
-      </c>
       <c r="O76" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -6286,22 +6286,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C77" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D77">
         <v>2018</v>
       </c>
       <c r="E77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77" t="s">
         <v>124</v>
-      </c>
-      <c r="F77" t="s">
-        <v>457</v>
-      </c>
-      <c r="G77" t="s">
-        <v>126</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
@@ -6310,16 +6310,16 @@
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s">
         <v>24</v>
       </c>
       <c r="N77" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O77" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -6327,43 +6327,43 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C78" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D78">
         <v>2018</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" t="s">
+        <v>462</v>
+      </c>
+      <c r="H78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J78" t="s">
         <v>125</v>
       </c>
-      <c r="G78" t="s">
-        <v>464</v>
-      </c>
-      <c r="H78" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>126</v>
+      </c>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" t="s">
         <v>127</v>
       </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>128</v>
-      </c>
-      <c r="M78" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" t="s">
-        <v>129</v>
-      </c>
       <c r="O78" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -6371,43 +6371,43 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C79" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D79">
         <v>2018</v>
       </c>
       <c r="E79" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" t="s">
+        <v>474</v>
+      </c>
+      <c r="G79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" t="s">
         <v>475</v>
       </c>
-      <c r="F79" t="s">
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" t="s">
         <v>476</v>
       </c>
-      <c r="G79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H79" t="s">
-        <v>61</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="O79" t="s">
         <v>477</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>128</v>
-      </c>
-      <c r="M79" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" t="s">
-        <v>478</v>
-      </c>
-      <c r="O79" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -6415,43 +6415,43 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C80" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D80">
         <v>2018</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G80" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H80" t="s">
         <v>20</v>
       </c>
       <c r="I80" t="s">
+        <v>481</v>
+      </c>
+      <c r="J80" t="s">
+        <v>482</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
         <v>483</v>
       </c>
-      <c r="J80" t="s">
+      <c r="O80" t="s">
         <v>484</v>
-      </c>
-      <c r="K80" t="s">
-        <v>22</v>
-      </c>
-      <c r="M80" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" t="s">
-        <v>485</v>
-      </c>
-      <c r="O80" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -6459,43 +6459,43 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C81" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D81">
         <v>2017</v>
       </c>
       <c r="E81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" t="s">
         <v>124</v>
       </c>
-      <c r="F81" t="s">
-        <v>354</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" t="s">
+        <v>487</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
         <v>126</v>
       </c>
-      <c r="H81" t="s">
-        <v>61</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="M81" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" t="s">
+        <v>488</v>
+      </c>
+      <c r="O81" t="s">
         <v>489</v>
-      </c>
-      <c r="K81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" t="s">
-        <v>128</v>
-      </c>
-      <c r="M81" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" t="s">
-        <v>490</v>
-      </c>
-      <c r="O81" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -6503,43 +6503,43 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C82" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D82">
         <v>2017</v>
       </c>
       <c r="E82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" t="s">
+        <v>455</v>
+      </c>
+      <c r="G82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" t="s">
-        <v>457</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" t="s">
+        <v>492</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
         <v>126</v>
       </c>
-      <c r="H82" t="s">
-        <v>61</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
+        <v>493</v>
+      </c>
+      <c r="O82" t="s">
         <v>494</v>
-      </c>
-      <c r="K82" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" t="s">
-        <v>128</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" t="s">
-        <v>495</v>
-      </c>
-      <c r="O82" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -6547,40 +6547,40 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D83">
         <v>2017</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
       </c>
       <c r="I83" t="s">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" t="s">
+        <v>216</v>
+      </c>
+      <c r="N83" t="s">
+        <v>499</v>
+      </c>
+      <c r="O83" t="s">
         <v>500</v>
-      </c>
-      <c r="K83" t="s">
-        <v>22</v>
-      </c>
-      <c r="M83" t="s">
-        <v>218</v>
-      </c>
-      <c r="N83" t="s">
-        <v>501</v>
-      </c>
-      <c r="O83" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -6588,40 +6588,40 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D84">
         <v>2015</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J84" t="s">
+        <v>503</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="M84" t="s">
+        <v>216</v>
+      </c>
+      <c r="N84" t="s">
+        <v>504</v>
+      </c>
+      <c r="O84" t="s">
         <v>505</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="M84" t="s">
-        <v>218</v>
-      </c>
-      <c r="N84" t="s">
-        <v>506</v>
-      </c>
-      <c r="O84" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -6629,19 +6629,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C85" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D85">
         <v>2014</v>
       </c>
       <c r="E85" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F85" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -6650,25 +6650,25 @@
         <v>20</v>
       </c>
       <c r="I85" t="s">
+        <v>509</v>
+      </c>
+      <c r="J85" t="s">
+        <v>849</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" t="s">
+        <v>216</v>
+      </c>
+      <c r="N85" t="s">
+        <v>510</v>
+      </c>
+      <c r="O85" t="s">
         <v>511</v>
-      </c>
-      <c r="J85" t="s">
-        <v>512</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="s">
-        <v>128</v>
-      </c>
-      <c r="M85" t="s">
-        <v>218</v>
-      </c>
-      <c r="N85" t="s">
-        <v>513</v>
-      </c>
-      <c r="O85" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -6676,40 +6676,40 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C86" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D86">
         <v>2014</v>
       </c>
       <c r="E86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F86" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G86" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J86" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K86" t="s">
         <v>22</v>
       </c>
       <c r="M86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N86" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O86" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -6717,43 +6717,43 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C87" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D87">
         <v>2013</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
       </c>
       <c r="I87" t="s">
+        <v>518</v>
+      </c>
+      <c r="J87" t="s">
+        <v>519</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" t="s">
+        <v>216</v>
+      </c>
+      <c r="N87" t="s">
+        <v>520</v>
+      </c>
+      <c r="O87" t="s">
         <v>521</v>
-      </c>
-      <c r="J87" t="s">
-        <v>522</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
-      </c>
-      <c r="M87" t="s">
-        <v>218</v>
-      </c>
-      <c r="N87" t="s">
-        <v>523</v>
-      </c>
-      <c r="O87" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -6761,28 +6761,28 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C88" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D88">
         <v>2018</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G88" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
@@ -6791,10 +6791,10 @@
         <v>24</v>
       </c>
       <c r="N88" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O88" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -6802,43 +6802,43 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C89" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D89">
         <v>2015</v>
       </c>
       <c r="E89" t="s">
+        <v>530</v>
+      </c>
+      <c r="F89" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" t="s">
+        <v>531</v>
+      </c>
+      <c r="H89" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" t="s">
+        <v>532</v>
+      </c>
+      <c r="J89" t="s">
         <v>533</v>
       </c>
-      <c r="F89" t="s">
-        <v>354</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" t="s">
         <v>534</v>
       </c>
-      <c r="H89" t="s">
-        <v>61</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="O89" t="s">
         <v>535</v>
-      </c>
-      <c r="J89" t="s">
-        <v>536</v>
-      </c>
-      <c r="K89" t="s">
-        <v>22</v>
-      </c>
-      <c r="M89" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" t="s">
-        <v>537</v>
-      </c>
-      <c r="O89" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -6846,46 +6846,46 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C90" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D90">
         <v>2016</v>
       </c>
       <c r="E90" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F90" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G90" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
       </c>
       <c r="I90" t="s">
+        <v>541</v>
+      </c>
+      <c r="J90" t="s">
+        <v>542</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>126</v>
+      </c>
+      <c r="M90" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" t="s">
+        <v>543</v>
+      </c>
+      <c r="O90" t="s">
         <v>544</v>
-      </c>
-      <c r="J90" t="s">
-        <v>545</v>
-      </c>
-      <c r="K90" t="s">
-        <v>22</v>
-      </c>
-      <c r="L90" t="s">
-        <v>128</v>
-      </c>
-      <c r="M90" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" t="s">
-        <v>546</v>
-      </c>
-      <c r="O90" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -6893,46 +6893,46 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D91">
         <v>2015</v>
       </c>
       <c r="E91" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F91" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G91" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91" t="s">
+        <v>548</v>
+      </c>
+      <c r="J91" t="s">
+        <v>549</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
+        <v>126</v>
+      </c>
+      <c r="M91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" t="s">
+        <v>550</v>
+      </c>
+      <c r="O91" t="s">
         <v>551</v>
-      </c>
-      <c r="J91" t="s">
-        <v>552</v>
-      </c>
-      <c r="K91" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" t="s">
-        <v>128</v>
-      </c>
-      <c r="M91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" t="s">
-        <v>553</v>
-      </c>
-      <c r="O91" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -6940,40 +6940,40 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C92" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D92">
         <v>2017</v>
       </c>
       <c r="E92" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F92" t="s">
+        <v>554</v>
+      </c>
+      <c r="G92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" t="s">
+        <v>59</v>
+      </c>
+      <c r="J92" t="s">
+        <v>555</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" t="s">
+        <v>556</v>
+      </c>
+      <c r="O92" t="s">
         <v>557</v>
-      </c>
-      <c r="G92" t="s">
-        <v>60</v>
-      </c>
-      <c r="H92" t="s">
-        <v>61</v>
-      </c>
-      <c r="J92" t="s">
-        <v>558</v>
-      </c>
-      <c r="K92" t="s">
-        <v>22</v>
-      </c>
-      <c r="M92" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" t="s">
-        <v>559</v>
-      </c>
-      <c r="O92" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -6981,10 +6981,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C93" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D93">
         <v>2017</v>
@@ -6993,31 +6993,31 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
       </c>
       <c r="I93" t="s">
+        <v>561</v>
+      </c>
+      <c r="J93" t="s">
+        <v>562</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" t="s">
+        <v>563</v>
+      </c>
+      <c r="O93" t="s">
         <v>564</v>
-      </c>
-      <c r="J93" t="s">
-        <v>565</v>
-      </c>
-      <c r="K93" t="s">
-        <v>22</v>
-      </c>
-      <c r="M93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" t="s">
-        <v>566</v>
-      </c>
-      <c r="O93" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -7025,10 +7025,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C94" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D94">
         <v>2016</v>
@@ -7037,16 +7037,16 @@
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
         <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K94" t="s">
         <v>22</v>
@@ -7055,10 +7055,10 @@
         <v>24</v>
       </c>
       <c r="N94" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O94" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -7066,10 +7066,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C95" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D95">
         <v>2015</v>
@@ -7078,16 +7078,16 @@
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J95" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K95" t="s">
         <v>22</v>
@@ -7096,10 +7096,10 @@
         <v>24</v>
       </c>
       <c r="N95" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="O95" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -7107,10 +7107,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C96" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D96">
         <v>2013</v>
@@ -7119,31 +7119,31 @@
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H96" t="s">
         <v>20</v>
       </c>
       <c r="I96" t="s">
+        <v>577</v>
+      </c>
+      <c r="J96" t="s">
+        <v>578</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" t="s">
+        <v>579</v>
+      </c>
+      <c r="O96" t="s">
         <v>580</v>
-      </c>
-      <c r="J96" t="s">
-        <v>581</v>
-      </c>
-      <c r="K96" t="s">
-        <v>22</v>
-      </c>
-      <c r="M96" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" t="s">
-        <v>582</v>
-      </c>
-      <c r="O96" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -7151,10 +7151,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C97" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D97">
         <v>2013</v>
@@ -7163,34 +7163,34 @@
         <v>17</v>
       </c>
       <c r="F97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" t="s">
+        <v>582</v>
+      </c>
+      <c r="H97" t="s">
         <v>59</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
+        <v>583</v>
+      </c>
+      <c r="J97" t="s">
+        <v>584</v>
+      </c>
+      <c r="K97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" t="s">
+        <v>74</v>
+      </c>
+      <c r="M97" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" t="s">
         <v>585</v>
       </c>
-      <c r="H97" t="s">
-        <v>61</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="O97" t="s">
         <v>586</v>
-      </c>
-      <c r="J97" t="s">
-        <v>587</v>
-      </c>
-      <c r="K97" t="s">
-        <v>22</v>
-      </c>
-      <c r="L97" t="s">
-        <v>76</v>
-      </c>
-      <c r="M97" t="s">
-        <v>24</v>
-      </c>
-      <c r="N97" t="s">
-        <v>588</v>
-      </c>
-      <c r="O97" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -7198,10 +7198,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D98">
         <v>2014</v>
@@ -7210,28 +7210,28 @@
         <v>17</v>
       </c>
       <c r="F98" t="s">
+        <v>589</v>
+      </c>
+      <c r="G98" t="s">
+        <v>590</v>
+      </c>
+      <c r="H98" t="s">
+        <v>59</v>
+      </c>
+      <c r="J98" t="s">
+        <v>591</v>
+      </c>
+      <c r="K98" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" t="s">
         <v>592</v>
       </c>
-      <c r="G98" t="s">
+      <c r="O98" t="s">
         <v>593</v>
-      </c>
-      <c r="H98" t="s">
-        <v>61</v>
-      </c>
-      <c r="J98" t="s">
-        <v>594</v>
-      </c>
-      <c r="K98" t="s">
-        <v>22</v>
-      </c>
-      <c r="M98" t="s">
-        <v>24</v>
-      </c>
-      <c r="N98" t="s">
-        <v>595</v>
-      </c>
-      <c r="O98" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -7239,10 +7239,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C99" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D99">
         <v>2017</v>
@@ -7251,16 +7251,16 @@
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H99" t="s">
         <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K99" t="s">
         <v>22</v>
@@ -7269,10 +7269,10 @@
         <v>24</v>
       </c>
       <c r="N99" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O99" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
@@ -7280,10 +7280,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C100" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D100">
         <v>2015</v>
@@ -7292,16 +7292,16 @@
         <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G100" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K100" t="s">
         <v>22</v>
@@ -7310,10 +7310,10 @@
         <v>24</v>
       </c>
       <c r="N100" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="O100" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -7321,10 +7321,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C101" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D101">
         <v>2015</v>
@@ -7333,16 +7333,16 @@
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H101" t="s">
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K101" t="s">
         <v>22</v>
@@ -7351,10 +7351,10 @@
         <v>24</v>
       </c>
       <c r="N101" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O101" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -7362,10 +7362,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C102" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D102">
         <v>2014</v>
@@ -7374,28 +7374,28 @@
         <v>17</v>
       </c>
       <c r="F102" t="s">
+        <v>613</v>
+      </c>
+      <c r="G102" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" t="s">
+        <v>59</v>
+      </c>
+      <c r="J102" t="s">
+        <v>614</v>
+      </c>
+      <c r="K102" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" t="s">
+        <v>615</v>
+      </c>
+      <c r="N102" t="s">
         <v>616</v>
       </c>
-      <c r="G102" t="s">
-        <v>60</v>
-      </c>
-      <c r="H102" t="s">
-        <v>61</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="O102" t="s">
         <v>617</v>
-      </c>
-      <c r="K102" t="s">
-        <v>22</v>
-      </c>
-      <c r="M102" t="s">
-        <v>618</v>
-      </c>
-      <c r="N102" t="s">
-        <v>619</v>
-      </c>
-      <c r="O102" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -7403,22 +7403,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C103" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D103">
         <v>2015</v>
       </c>
       <c r="E103" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
@@ -7427,7 +7427,7 @@
         <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K103" t="s">
         <v>22</v>
@@ -7439,7 +7439,7 @@
         <v>25</v>
       </c>
       <c r="O103" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -7447,43 +7447,43 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C104" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D104">
         <v>2017</v>
       </c>
       <c r="E104" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F104" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G104" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
       </c>
       <c r="I104" t="s">
+        <v>628</v>
+      </c>
+      <c r="J104" t="s">
+        <v>629</v>
+      </c>
+      <c r="K104" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" t="s">
+        <v>24</v>
+      </c>
+      <c r="N104" t="s">
+        <v>630</v>
+      </c>
+      <c r="O104" t="s">
         <v>631</v>
-      </c>
-      <c r="J104" t="s">
-        <v>632</v>
-      </c>
-      <c r="K104" t="s">
-        <v>22</v>
-      </c>
-      <c r="M104" t="s">
-        <v>24</v>
-      </c>
-      <c r="N104" t="s">
-        <v>633</v>
-      </c>
-      <c r="O104" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -7491,10 +7491,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C105" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D105">
         <v>2016</v>
@@ -7503,16 +7503,16 @@
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G105" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H105" t="s">
         <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="K105" t="s">
         <v>22</v>
@@ -7521,10 +7521,10 @@
         <v>24</v>
       </c>
       <c r="N105" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O105" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -7532,43 +7532,43 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C106" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D106">
         <v>2018</v>
       </c>
       <c r="E106" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H106" t="s">
         <v>20</v>
       </c>
       <c r="I106" t="s">
+        <v>642</v>
+      </c>
+      <c r="J106" t="s">
+        <v>643</v>
+      </c>
+      <c r="K106" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" t="s">
+        <v>24</v>
+      </c>
+      <c r="N106" t="s">
+        <v>644</v>
+      </c>
+      <c r="O106" t="s">
         <v>645</v>
-      </c>
-      <c r="J106" t="s">
-        <v>646</v>
-      </c>
-      <c r="K106" t="s">
-        <v>22</v>
-      </c>
-      <c r="M106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N106" t="s">
-        <v>647</v>
-      </c>
-      <c r="O106" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -7576,10 +7576,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C107" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D107">
         <v>2017</v>
@@ -7588,7 +7588,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -7597,25 +7597,25 @@
         <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J107" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K107" t="s">
         <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M107" t="s">
         <v>24</v>
       </c>
       <c r="N107" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O107" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -7623,10 +7623,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C108" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D108">
         <v>2013</v>
@@ -7635,28 +7635,28 @@
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H108" t="s">
         <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K108" t="s">
         <v>22</v>
       </c>
       <c r="M108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N108" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O108" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
@@ -7664,10 +7664,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C109" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D109">
         <v>2017</v>
@@ -7676,16 +7676,16 @@
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G109" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H109" t="s">
         <v>20</v>
       </c>
       <c r="I109" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K109" t="s">
         <v>22</v>
@@ -7694,10 +7694,10 @@
         <v>24</v>
       </c>
       <c r="N109" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O109" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -7705,10 +7705,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C110" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D110">
         <v>2017</v>
@@ -7717,16 +7717,16 @@
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G110" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K110" t="s">
         <v>22</v>
@@ -7735,10 +7735,10 @@
         <v>24</v>
       </c>
       <c r="N110" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O110" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
@@ -7746,40 +7746,40 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C111" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D111">
         <v>2014</v>
       </c>
       <c r="E111" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G111" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H111" t="s">
         <v>20</v>
       </c>
       <c r="I111" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K111" t="s">
         <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N111" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O111" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -7787,40 +7787,40 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C112" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D112">
         <v>2014</v>
       </c>
       <c r="E112" t="s">
+        <v>677</v>
+      </c>
+      <c r="F112" t="s">
+        <v>678</v>
+      </c>
+      <c r="G112" t="s">
+        <v>124</v>
+      </c>
+      <c r="H112" t="s">
+        <v>59</v>
+      </c>
+      <c r="J112" t="s">
+        <v>679</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+      <c r="M112" t="s">
+        <v>24</v>
+      </c>
+      <c r="N112" t="s">
         <v>680</v>
       </c>
-      <c r="F112" t="s">
+      <c r="O112" t="s">
         <v>681</v>
-      </c>
-      <c r="G112" t="s">
-        <v>126</v>
-      </c>
-      <c r="H112" t="s">
-        <v>61</v>
-      </c>
-      <c r="J112" t="s">
-        <v>682</v>
-      </c>
-      <c r="K112" t="s">
-        <v>22</v>
-      </c>
-      <c r="M112" t="s">
-        <v>24</v>
-      </c>
-      <c r="N112" t="s">
-        <v>683</v>
-      </c>
-      <c r="O112" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
@@ -7828,43 +7828,43 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C113" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D113">
         <v>2017</v>
       </c>
       <c r="E113" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G113" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H113" t="s">
         <v>20</v>
       </c>
       <c r="I113" t="s">
+        <v>685</v>
+      </c>
+      <c r="J113" t="s">
+        <v>686</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" t="s">
+        <v>24</v>
+      </c>
+      <c r="N113" t="s">
+        <v>687</v>
+      </c>
+      <c r="O113" t="s">
         <v>688</v>
-      </c>
-      <c r="J113" t="s">
-        <v>689</v>
-      </c>
-      <c r="K113" t="s">
-        <v>22</v>
-      </c>
-      <c r="M113" t="s">
-        <v>24</v>
-      </c>
-      <c r="N113" t="s">
-        <v>690</v>
-      </c>
-      <c r="O113" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
@@ -7872,43 +7872,43 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C114" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D114">
         <v>2013</v>
       </c>
       <c r="E114" t="s">
+        <v>691</v>
+      </c>
+      <c r="F114" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" t="s">
+        <v>124</v>
+      </c>
+      <c r="H114" t="s">
+        <v>59</v>
+      </c>
+      <c r="I114" t="s">
+        <v>692</v>
+      </c>
+      <c r="J114" t="s">
+        <v>693</v>
+      </c>
+      <c r="K114" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" t="s">
+        <v>216</v>
+      </c>
+      <c r="N114" t="s">
         <v>694</v>
       </c>
-      <c r="F114" t="s">
-        <v>59</v>
-      </c>
-      <c r="G114" t="s">
-        <v>126</v>
-      </c>
-      <c r="H114" t="s">
-        <v>61</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="O114" t="s">
         <v>695</v>
-      </c>
-      <c r="J114" t="s">
-        <v>696</v>
-      </c>
-      <c r="K114" t="s">
-        <v>22</v>
-      </c>
-      <c r="M114" t="s">
-        <v>218</v>
-      </c>
-      <c r="N114" t="s">
-        <v>697</v>
-      </c>
-      <c r="O114" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
@@ -7916,40 +7916,40 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C115" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D115">
         <v>2013</v>
       </c>
       <c r="E115" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H115" t="s">
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K115" t="s">
         <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N115" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="O115" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
@@ -7957,28 +7957,28 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C116" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D116">
         <v>2019</v>
       </c>
       <c r="E116" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F116" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G116" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H116" t="s">
         <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K116" t="s">
         <v>22</v>
@@ -7987,10 +7987,10 @@
         <v>24</v>
       </c>
       <c r="N116" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="O116" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
@@ -7998,43 +7998,43 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C117" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D117">
         <v>2016</v>
       </c>
       <c r="E117" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F117" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J117" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K117" t="s">
         <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M117" t="s">
         <v>24</v>
       </c>
       <c r="N117" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="O117" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
@@ -8042,40 +8042,40 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C118" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D118">
         <v>2013</v>
       </c>
       <c r="E118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G118" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H118" t="s">
         <v>20</v>
       </c>
       <c r="I118" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K118" t="s">
         <v>22</v>
       </c>
       <c r="M118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N118" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O118" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -8083,31 +8083,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C119" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D119">
         <v>2019</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G119" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H119" t="s">
         <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="J119" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K119" t="s">
         <v>22</v>
@@ -8119,10 +8119,10 @@
         <v>24</v>
       </c>
       <c r="N119" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O119" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
@@ -8130,10 +8130,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C120" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D120">
         <v>2018</v>
@@ -8142,28 +8142,28 @@
         <v>17</v>
       </c>
       <c r="F120" t="s">
+        <v>727</v>
+      </c>
+      <c r="G120" t="s">
+        <v>462</v>
+      </c>
+      <c r="H120" t="s">
+        <v>59</v>
+      </c>
+      <c r="J120" t="s">
+        <v>728</v>
+      </c>
+      <c r="K120" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" t="s">
+        <v>24</v>
+      </c>
+      <c r="N120" t="s">
+        <v>729</v>
+      </c>
+      <c r="O120" t="s">
         <v>730</v>
-      </c>
-      <c r="G120" t="s">
-        <v>464</v>
-      </c>
-      <c r="H120" t="s">
-        <v>61</v>
-      </c>
-      <c r="J120" t="s">
-        <v>731</v>
-      </c>
-      <c r="K120" t="s">
-        <v>22</v>
-      </c>
-      <c r="M120" t="s">
-        <v>24</v>
-      </c>
-      <c r="N120" t="s">
-        <v>732</v>
-      </c>
-      <c r="O120" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -8171,28 +8171,28 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C121" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D121">
         <v>2019</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G121" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J121" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K121" t="s">
         <v>22</v>
@@ -8201,10 +8201,10 @@
         <v>24</v>
       </c>
       <c r="N121" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="O121" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
@@ -8212,28 +8212,28 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C122" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D122">
         <v>2018</v>
       </c>
       <c r="E122" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F122" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G122" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H122" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J122" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="K122" t="s">
         <v>22</v>
@@ -8245,10 +8245,10 @@
         <v>24</v>
       </c>
       <c r="N122" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="O122" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
@@ -8256,43 +8256,43 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C123" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D123">
         <v>2018</v>
       </c>
       <c r="E123" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F123" t="s">
+        <v>744</v>
+      </c>
+      <c r="G123" t="s">
+        <v>208</v>
+      </c>
+      <c r="H123" t="s">
+        <v>59</v>
+      </c>
+      <c r="J123" t="s">
+        <v>745</v>
+      </c>
+      <c r="K123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" t="s">
+        <v>269</v>
+      </c>
+      <c r="M123" t="s">
+        <v>746</v>
+      </c>
+      <c r="N123" t="s">
         <v>747</v>
       </c>
-      <c r="G123" t="s">
-        <v>210</v>
-      </c>
-      <c r="H123" t="s">
-        <v>61</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="O123" t="s">
         <v>748</v>
-      </c>
-      <c r="K123" t="s">
-        <v>22</v>
-      </c>
-      <c r="L123" t="s">
-        <v>271</v>
-      </c>
-      <c r="M123" t="s">
-        <v>749</v>
-      </c>
-      <c r="N123" t="s">
-        <v>750</v>
-      </c>
-      <c r="O123" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
@@ -8300,43 +8300,43 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C124" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D124">
         <v>2019</v>
       </c>
       <c r="E124" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G124" t="s">
         <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J124" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="K124" t="s">
         <v>22</v>
       </c>
       <c r="L124" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M124" t="s">
         <v>24</v>
       </c>
       <c r="N124" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O124" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
@@ -8344,10 +8344,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C125" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D125">
         <v>2017</v>
@@ -8356,31 +8356,31 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G125" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H125" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I125" t="s">
+        <v>755</v>
+      </c>
+      <c r="J125" t="s">
+        <v>756</v>
+      </c>
+      <c r="K125" t="s">
+        <v>22</v>
+      </c>
+      <c r="M125" t="s">
+        <v>24</v>
+      </c>
+      <c r="N125" t="s">
+        <v>757</v>
+      </c>
+      <c r="O125" t="s">
         <v>758</v>
-      </c>
-      <c r="J125" t="s">
-        <v>759</v>
-      </c>
-      <c r="K125" t="s">
-        <v>22</v>
-      </c>
-      <c r="M125" t="s">
-        <v>24</v>
-      </c>
-      <c r="N125" t="s">
-        <v>760</v>
-      </c>
-      <c r="O125" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
@@ -8388,31 +8388,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C126" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D126">
         <v>2019</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F126" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G126" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H126" t="s">
         <v>20</v>
       </c>
       <c r="I126" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J126" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K126" t="s">
         <v>22</v>
@@ -8424,10 +8424,10 @@
         <v>24</v>
       </c>
       <c r="N126" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="O126" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
@@ -8435,10 +8435,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C127" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D127">
         <v>2017</v>
@@ -8447,16 +8447,16 @@
         <v>17</v>
       </c>
       <c r="F127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G127" t="s">
+        <v>402</v>
+      </c>
+      <c r="H127" t="s">
         <v>59</v>
       </c>
-      <c r="G127" t="s">
-        <v>404</v>
-      </c>
-      <c r="H127" t="s">
-        <v>61</v>
-      </c>
       <c r="J127" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K127" t="s">
         <v>22</v>
@@ -8465,10 +8465,10 @@
         <v>24</v>
       </c>
       <c r="N127" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O127" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
@@ -8476,10 +8476,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C128" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D128">
         <v>2019</v>
@@ -8488,28 +8488,28 @@
         <v>17</v>
       </c>
       <c r="F128" t="s">
+        <v>774</v>
+      </c>
+      <c r="G128" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" t="s">
+        <v>59</v>
+      </c>
+      <c r="J128" t="s">
+        <v>775</v>
+      </c>
+      <c r="K128" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" t="s">
+        <v>24</v>
+      </c>
+      <c r="N128" t="s">
+        <v>776</v>
+      </c>
+      <c r="O128" t="s">
         <v>777</v>
-      </c>
-      <c r="G128" t="s">
-        <v>60</v>
-      </c>
-      <c r="H128" t="s">
-        <v>61</v>
-      </c>
-      <c r="J128" t="s">
-        <v>778</v>
-      </c>
-      <c r="K128" t="s">
-        <v>22</v>
-      </c>
-      <c r="M128" t="s">
-        <v>24</v>
-      </c>
-      <c r="N128" t="s">
-        <v>779</v>
-      </c>
-      <c r="O128" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8517,10 +8517,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C129" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D129">
         <v>2018</v>
@@ -8529,31 +8529,31 @@
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G129" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="H129" t="s">
         <v>20</v>
       </c>
       <c r="I129" t="s">
+        <v>781</v>
+      </c>
+      <c r="J129" t="s">
+        <v>782</v>
+      </c>
+      <c r="K129" t="s">
+        <v>22</v>
+      </c>
+      <c r="M129" t="s">
+        <v>24</v>
+      </c>
+      <c r="N129" t="s">
+        <v>783</v>
+      </c>
+      <c r="O129" t="s">
         <v>784</v>
-      </c>
-      <c r="J129" t="s">
-        <v>785</v>
-      </c>
-      <c r="K129" t="s">
-        <v>22</v>
-      </c>
-      <c r="M129" t="s">
-        <v>24</v>
-      </c>
-      <c r="N129" t="s">
-        <v>786</v>
-      </c>
-      <c r="O129" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8561,43 +8561,43 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C130" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D130">
         <v>2019</v>
       </c>
       <c r="E130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F130" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G130" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H130" t="s">
         <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="K130" t="s">
         <v>22</v>
       </c>
       <c r="L130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M130" t="s">
         <v>24</v>
       </c>
       <c r="N130" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="O130" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8605,10 +8605,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C131" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D131">
         <v>2013</v>
@@ -8617,31 +8617,31 @@
         <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H131" t="s">
         <v>20</v>
       </c>
       <c r="I131" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="K131" t="s">
         <v>22</v>
       </c>
       <c r="L131" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M131" t="s">
         <v>24</v>
       </c>
       <c r="N131" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="O131" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8649,40 +8649,40 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C132" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D132">
         <v>2018</v>
       </c>
       <c r="E132" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F132" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G132" t="s">
+        <v>799</v>
+      </c>
+      <c r="H132" t="s">
+        <v>800</v>
+      </c>
+      <c r="I132" t="s">
+        <v>801</v>
+      </c>
+      <c r="K132" t="s">
+        <v>22</v>
+      </c>
+      <c r="M132" t="s">
+        <v>24</v>
+      </c>
+      <c r="N132" t="s">
         <v>802</v>
       </c>
-      <c r="H132" t="s">
+      <c r="O132" t="s">
         <v>803</v>
-      </c>
-      <c r="I132" t="s">
-        <v>804</v>
-      </c>
-      <c r="K132" t="s">
-        <v>22</v>
-      </c>
-      <c r="M132" t="s">
-        <v>24</v>
-      </c>
-      <c r="N132" t="s">
-        <v>805</v>
-      </c>
-      <c r="O132" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8690,31 +8690,31 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C133" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D133">
         <v>2019</v>
       </c>
       <c r="E133" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F133" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
       </c>
       <c r="I133" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J133" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="K133" t="s">
         <v>22</v>
@@ -8726,10 +8726,10 @@
         <v>24</v>
       </c>
       <c r="N133" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="O133" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8737,10 +8737,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C134" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D134">
         <v>2017</v>
@@ -8749,7 +8749,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G134" t="s">
         <v>19</v>
@@ -8758,7 +8758,7 @@
         <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="K134" t="s">
         <v>22</v>
@@ -8767,10 +8767,10 @@
         <v>24</v>
       </c>
       <c r="N134" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O134" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8778,40 +8778,40 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C135" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D135">
         <v>2019</v>
       </c>
       <c r="E135" t="s">
+        <v>816</v>
+      </c>
+      <c r="F135" t="s">
+        <v>207</v>
+      </c>
+      <c r="G135" t="s">
+        <v>462</v>
+      </c>
+      <c r="H135" t="s">
+        <v>59</v>
+      </c>
+      <c r="J135" t="s">
+        <v>817</v>
+      </c>
+      <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="M135" t="s">
+        <v>24</v>
+      </c>
+      <c r="N135" t="s">
+        <v>818</v>
+      </c>
+      <c r="O135" t="s">
         <v>819</v>
-      </c>
-      <c r="F135" t="s">
-        <v>209</v>
-      </c>
-      <c r="G135" t="s">
-        <v>464</v>
-      </c>
-      <c r="H135" t="s">
-        <v>61</v>
-      </c>
-      <c r="J135" t="s">
-        <v>820</v>
-      </c>
-      <c r="K135" t="s">
-        <v>22</v>
-      </c>
-      <c r="M135" t="s">
-        <v>24</v>
-      </c>
-      <c r="N135" t="s">
-        <v>821</v>
-      </c>
-      <c r="O135" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8819,10 +8819,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C136" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D136">
         <v>2017</v>
@@ -8831,16 +8831,16 @@
         <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G136" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J136" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K136" t="s">
         <v>22</v>
@@ -8849,10 +8849,10 @@
         <v>24</v>
       </c>
       <c r="N136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O136" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8860,43 +8860,43 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C137" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D137">
         <v>2018</v>
       </c>
       <c r="E137" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" t="s">
+        <v>123</v>
+      </c>
+      <c r="G137" t="s">
         <v>124</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
+        <v>59</v>
+      </c>
+      <c r="J137" t="s">
         <v>125</v>
       </c>
-      <c r="G137" t="s">
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" t="s">
         <v>126</v>
       </c>
-      <c r="H137" t="s">
-        <v>61</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="M137" t="s">
+        <v>24</v>
+      </c>
+      <c r="N137" t="s">
         <v>127</v>
       </c>
-      <c r="K137" t="s">
-        <v>22</v>
-      </c>
-      <c r="L137" t="s">
-        <v>128</v>
-      </c>
-      <c r="M137" t="s">
-        <v>24</v>
-      </c>
-      <c r="N137" t="s">
-        <v>129</v>
-      </c>
       <c r="O137" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
@@ -8904,10 +8904,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C138" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D138">
         <v>2019</v>
@@ -8916,31 +8916,31 @@
         <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G138" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H138" t="s">
         <v>20</v>
       </c>
       <c r="I138" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K138" t="s">
         <v>22</v>
       </c>
       <c r="L138" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M138" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N138" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="O138" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
@@ -8948,46 +8948,46 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C139" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D139">
         <v>2020</v>
       </c>
       <c r="E139" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G139" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H139" t="s">
         <v>20</v>
       </c>
       <c r="I139" t="s">
+        <v>835</v>
+      </c>
+      <c r="J139" t="s">
+        <v>836</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139" t="s">
+        <v>126</v>
+      </c>
+      <c r="M139" t="s">
+        <v>24</v>
+      </c>
+      <c r="N139" t="s">
+        <v>837</v>
+      </c>
+      <c r="O139" t="s">
         <v>838</v>
-      </c>
-      <c r="J139" t="s">
-        <v>839</v>
-      </c>
-      <c r="K139" t="s">
-        <v>22</v>
-      </c>
-      <c r="L139" t="s">
-        <v>128</v>
-      </c>
-      <c r="M139" t="s">
-        <v>24</v>
-      </c>
-      <c r="N139" t="s">
-        <v>840</v>
-      </c>
-      <c r="O139" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
@@ -8995,31 +8995,31 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C140" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D140">
         <v>2017</v>
       </c>
       <c r="E140" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F140" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G140" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
       </c>
       <c r="I140" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J140" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K140" t="s">
         <v>22</v>
@@ -9031,10 +9031,10 @@
         <v>24</v>
       </c>
       <c r="N140" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O140" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
@@ -9042,31 +9042,31 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C141" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D141">
         <v>2018</v>
       </c>
       <c r="E141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F141" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G141" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H141" t="s">
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J141" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="K141" t="s">
         <v>22</v>
@@ -9078,10 +9078,10 @@
         <v>24</v>
       </c>
       <c r="N141" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="O141" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
